--- a/players_stats/Andre Roberson.xlsx
+++ b/players_stats/Andre Roberson.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AJ7"/>
+  <dimension ref="A1:AK7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -374,170 +374,175 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
+          <t>Unnamed: 0.1</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
           <t>Season</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>Age</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>Tm</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>Lg</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>Pos</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>G</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>GS</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>MP</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>FG</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>FGA</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>FG%</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>3P</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>3PA</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>3P%</t>
         </is>
       </c>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="R1" s="1" t="inlineStr">
         <is>
           <t>2P</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>2PA</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>2P%</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>eFG%</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>FT</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="W1" s="1" t="inlineStr">
         <is>
           <t>FTA</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="X1" s="1" t="inlineStr">
         <is>
           <t>FT%</t>
         </is>
       </c>
-      <c r="X1" s="1" t="inlineStr">
+      <c r="Y1" s="1" t="inlineStr">
         <is>
           <t>ORB</t>
         </is>
       </c>
-      <c r="Y1" s="1" t="inlineStr">
+      <c r="Z1" s="1" t="inlineStr">
         <is>
           <t>DRB</t>
         </is>
       </c>
-      <c r="Z1" s="1" t="inlineStr">
+      <c r="AA1" s="1" t="inlineStr">
         <is>
           <t>TRB</t>
         </is>
       </c>
-      <c r="AA1" s="1" t="inlineStr">
+      <c r="AB1" s="1" t="inlineStr">
         <is>
           <t>AST</t>
         </is>
       </c>
-      <c r="AB1" s="1" t="inlineStr">
+      <c r="AC1" s="1" t="inlineStr">
         <is>
           <t>STL</t>
         </is>
       </c>
-      <c r="AC1" s="1" t="inlineStr">
+      <c r="AD1" s="1" t="inlineStr">
         <is>
           <t>BLK</t>
         </is>
       </c>
-      <c r="AD1" s="1" t="inlineStr">
+      <c r="AE1" s="1" t="inlineStr">
         <is>
           <t>TOV</t>
         </is>
       </c>
-      <c r="AE1" s="1" t="inlineStr">
+      <c r="AF1" s="1" t="inlineStr">
         <is>
           <t>PF</t>
         </is>
       </c>
-      <c r="AF1" s="1" t="inlineStr">
+      <c r="AG1" s="1" t="inlineStr">
         <is>
           <t>PTS</t>
         </is>
       </c>
-      <c r="AG1" s="1" t="inlineStr">
+      <c r="AH1" s="1" t="inlineStr">
         <is>
           <t>Height</t>
         </is>
       </c>
-      <c r="AH1" s="1" t="inlineStr">
+      <c r="AI1" s="1" t="inlineStr">
         <is>
           <t>Weight</t>
         </is>
       </c>
-      <c r="AI1" s="1" t="inlineStr">
+      <c r="AJ1" s="1" t="inlineStr">
         <is>
           <t>ShootingHand</t>
         </is>
       </c>
-      <c r="AJ1" s="1" t="inlineStr">
+      <c r="AK1" s="1" t="inlineStr">
         <is>
           <t>draftRank</t>
         </is>
@@ -550,113 +555,124 @@
       <c r="B2" t="n">
         <v>0</v>
       </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>1977-78</t>
-        </is>
-      </c>
-      <c r="D2" t="n">
+      <c r="C2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>2013-14</t>
+        </is>
+      </c>
+      <c r="E2" t="n">
         <v>22</v>
       </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>DEN</t>
-        </is>
-      </c>
       <c r="F2" t="inlineStr">
         <is>
+          <t>OKC</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
           <t>NBA</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>SF</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>82</v>
-      </c>
-      <c r="I2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>SG</t>
+        </is>
+      </c>
+      <c r="I2" t="n">
+        <v>40</v>
+      </c>
       <c r="J2" t="n">
-        <v>1598</v>
+        <v>16</v>
       </c>
       <c r="K2" t="n">
-        <v>311</v>
+        <v>399</v>
       </c>
       <c r="L2" t="n">
-        <v>736</v>
+        <v>33</v>
       </c>
       <c r="M2" t="n">
-        <v>0.423</v>
-      </c>
-      <c r="N2" t="inlineStr"/>
-      <c r="O2" t="inlineStr"/>
-      <c r="P2" t="inlineStr"/>
+        <v>68</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0.485</v>
+      </c>
+      <c r="O2" t="n">
+        <v>2</v>
+      </c>
+      <c r="P2" t="n">
+        <v>13</v>
+      </c>
       <c r="Q2" t="n">
-        <v>311</v>
+        <v>0.154</v>
       </c>
       <c r="R2" t="n">
-        <v>736</v>
+        <v>31</v>
       </c>
       <c r="S2" t="n">
-        <v>0.423</v>
+        <v>55</v>
       </c>
       <c r="T2" t="n">
-        <v>0.423</v>
+        <v>0.5639999999999999</v>
       </c>
       <c r="U2" t="n">
-        <v>153</v>
+        <v>0.5</v>
       </c>
       <c r="V2" t="n">
-        <v>212</v>
+        <v>7</v>
       </c>
       <c r="W2" t="n">
-        <v>0.722</v>
+        <v>10</v>
       </c>
       <c r="X2" t="n">
-        <v>135</v>
+        <v>0.7</v>
       </c>
       <c r="Y2" t="n">
-        <v>216</v>
+        <v>36</v>
       </c>
       <c r="Z2" t="n">
-        <v>351</v>
+        <v>58</v>
       </c>
       <c r="AA2" t="n">
-        <v>105</v>
+        <v>94</v>
       </c>
       <c r="AB2" t="n">
-        <v>40</v>
+        <v>15</v>
       </c>
       <c r="AC2" t="n">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="AD2" t="n">
-        <v>118</v>
+        <v>10</v>
       </c>
       <c r="AE2" t="n">
-        <v>212</v>
+        <v>19</v>
       </c>
       <c r="AF2" t="n">
-        <v>775</v>
-      </c>
-      <c r="AG2" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 196</t>
-        </is>
+        <v>74</v>
+      </c>
+      <c r="AG2" t="n">
+        <v>75</v>
       </c>
       <c r="AH2" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 83 </t>
+          <t xml:space="preserve"> 201</t>
         </is>
       </c>
       <c r="AI2" t="inlineStr">
         <is>
+          <t xml:space="preserve"> 95 </t>
+        </is>
+      </c>
+      <c r="AJ2" t="inlineStr">
+        <is>
           <t>Right</t>
         </is>
       </c>
-      <c r="AJ2" t="n">
-        <v>21</v>
+      <c r="AK2" t="n">
+        <v>26</v>
       </c>
     </row>
     <row r="3">
@@ -666,113 +682,124 @@
       <c r="B3" t="n">
         <v>1</v>
       </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>1978-79</t>
-        </is>
-      </c>
-      <c r="D3" t="n">
+      <c r="C3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>2014-15</t>
+        </is>
+      </c>
+      <c r="E3" t="n">
         <v>23</v>
       </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>DEN</t>
-        </is>
-      </c>
       <c r="F3" t="inlineStr">
         <is>
+          <t>OKC</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
           <t>NBA</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>SF</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>63</v>
-      </c>
-      <c r="I3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>SG</t>
+        </is>
+      </c>
+      <c r="I3" t="n">
+        <v>67</v>
+      </c>
       <c r="J3" t="n">
-        <v>1236</v>
+        <v>65</v>
       </c>
       <c r="K3" t="n">
-        <v>211</v>
+        <v>1286</v>
       </c>
       <c r="L3" t="n">
-        <v>498</v>
+        <v>92</v>
       </c>
       <c r="M3" t="n">
-        <v>0.424</v>
-      </c>
-      <c r="N3" t="inlineStr"/>
-      <c r="O3" t="inlineStr"/>
-      <c r="P3" t="inlineStr"/>
+        <v>201</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0.458</v>
+      </c>
+      <c r="O3" t="n">
+        <v>21</v>
+      </c>
+      <c r="P3" t="n">
+        <v>85</v>
+      </c>
       <c r="Q3" t="n">
-        <v>211</v>
+        <v>0.247</v>
       </c>
       <c r="R3" t="n">
-        <v>498</v>
+        <v>71</v>
       </c>
       <c r="S3" t="n">
-        <v>0.424</v>
+        <v>116</v>
       </c>
       <c r="T3" t="n">
-        <v>0.424</v>
+        <v>0.612</v>
       </c>
       <c r="U3" t="n">
-        <v>76</v>
+        <v>0.51</v>
       </c>
       <c r="V3" t="n">
-        <v>110</v>
+        <v>23</v>
       </c>
       <c r="W3" t="n">
-        <v>0.6909999999999999</v>
+        <v>48</v>
       </c>
       <c r="X3" t="n">
-        <v>106</v>
+        <v>0.479</v>
       </c>
       <c r="Y3" t="n">
-        <v>152</v>
+        <v>60</v>
       </c>
       <c r="Z3" t="n">
-        <v>258</v>
+        <v>195</v>
       </c>
       <c r="AA3" t="n">
-        <v>107</v>
+        <v>255</v>
       </c>
       <c r="AB3" t="n">
-        <v>20</v>
+        <v>70</v>
       </c>
       <c r="AC3" t="n">
-        <v>2</v>
+        <v>53</v>
       </c>
       <c r="AD3" t="n">
-        <v>65</v>
+        <v>29</v>
       </c>
       <c r="AE3" t="n">
-        <v>142</v>
+        <v>46</v>
       </c>
       <c r="AF3" t="n">
-        <v>498</v>
-      </c>
-      <c r="AG3" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 196</t>
-        </is>
+        <v>141</v>
+      </c>
+      <c r="AG3" t="n">
+        <v>228</v>
       </c>
       <c r="AH3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 83 </t>
+          <t xml:space="preserve"> 201</t>
         </is>
       </c>
       <c r="AI3" t="inlineStr">
         <is>
+          <t xml:space="preserve"> 95 </t>
+        </is>
+      </c>
+      <c r="AJ3" t="inlineStr">
+        <is>
           <t>Right</t>
         </is>
       </c>
-      <c r="AJ3" t="n">
-        <v>21</v>
+      <c r="AK3" t="n">
+        <v>26</v>
       </c>
     </row>
     <row r="4">
@@ -782,119 +809,124 @@
       <c r="B4" t="n">
         <v>2</v>
       </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>1979-80</t>
-        </is>
-      </c>
-      <c r="D4" t="n">
+      <c r="C4" t="n">
+        <v>2</v>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>2015-16</t>
+        </is>
+      </c>
+      <c r="E4" t="n">
         <v>24</v>
       </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>DEN</t>
-        </is>
-      </c>
       <c r="F4" t="inlineStr">
         <is>
+          <t>OKC</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
           <t>NBA</t>
         </is>
       </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>SF</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>23</v>
-      </c>
-      <c r="I4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>SG</t>
+        </is>
+      </c>
+      <c r="I4" t="n">
+        <v>70</v>
+      </c>
       <c r="J4" t="n">
-        <v>486</v>
+        <v>70</v>
       </c>
       <c r="K4" t="n">
-        <v>69</v>
+        <v>1553</v>
       </c>
       <c r="L4" t="n">
-        <v>181</v>
+        <v>136</v>
       </c>
       <c r="M4" t="n">
-        <v>0.381</v>
+        <v>274</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>0.496</v>
       </c>
       <c r="O4" t="n">
-        <v>1</v>
+        <v>32</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>103</v>
       </c>
       <c r="Q4" t="n">
-        <v>69</v>
+        <v>0.311</v>
       </c>
       <c r="R4" t="n">
-        <v>180</v>
+        <v>104</v>
       </c>
       <c r="S4" t="n">
-        <v>0.383</v>
+        <v>171</v>
       </c>
       <c r="T4" t="n">
-        <v>0.381</v>
+        <v>0.608</v>
       </c>
       <c r="U4" t="n">
-        <v>39</v>
+        <v>0.555</v>
       </c>
       <c r="V4" t="n">
-        <v>60</v>
+        <v>33</v>
       </c>
       <c r="W4" t="n">
-        <v>0.65</v>
+        <v>54</v>
       </c>
       <c r="X4" t="n">
-        <v>54</v>
+        <v>0.611</v>
       </c>
       <c r="Y4" t="n">
-        <v>55</v>
+        <v>79</v>
       </c>
       <c r="Z4" t="n">
-        <v>109</v>
+        <v>172</v>
       </c>
       <c r="AA4" t="n">
-        <v>20</v>
+        <v>251</v>
       </c>
       <c r="AB4" t="n">
-        <v>13</v>
+        <v>47</v>
       </c>
       <c r="AC4" t="n">
-        <v>3</v>
+        <v>53</v>
       </c>
       <c r="AD4" t="n">
-        <v>28</v>
+        <v>42</v>
       </c>
       <c r="AE4" t="n">
-        <v>52</v>
+        <v>35</v>
       </c>
       <c r="AF4" t="n">
-        <v>177</v>
-      </c>
-      <c r="AG4" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 196</t>
-        </is>
+        <v>133</v>
+      </c>
+      <c r="AG4" t="n">
+        <v>337</v>
       </c>
       <c r="AH4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 83 </t>
+          <t xml:space="preserve"> 201</t>
         </is>
       </c>
       <c r="AI4" t="inlineStr">
         <is>
+          <t xml:space="preserve"> 95 </t>
+        </is>
+      </c>
+      <c r="AJ4" t="inlineStr">
+        <is>
           <t>Right</t>
         </is>
       </c>
-      <c r="AJ4" t="n">
-        <v>21</v>
+      <c r="AK4" t="n">
+        <v>26</v>
       </c>
     </row>
     <row r="5">
@@ -904,117 +936,124 @@
       <c r="B5" t="n">
         <v>3</v>
       </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>1980-81</t>
-        </is>
-      </c>
-      <c r="D5" t="n">
+      <c r="C5" t="n">
+        <v>3</v>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>2016-17</t>
+        </is>
+      </c>
+      <c r="E5" t="n">
         <v>25</v>
       </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>WSB</t>
-        </is>
-      </c>
       <c r="F5" t="inlineStr">
         <is>
+          <t>OKC</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
           <t>NBA</t>
         </is>
       </c>
-      <c r="G5" t="inlineStr">
+      <c r="H5" t="inlineStr">
         <is>
           <t>SF</t>
         </is>
       </c>
-      <c r="H5" t="n">
+      <c r="I5" t="n">
+        <v>79</v>
+      </c>
+      <c r="J5" t="n">
+        <v>79</v>
+      </c>
+      <c r="K5" t="n">
+        <v>2376</v>
+      </c>
+      <c r="L5" t="n">
+        <v>215</v>
+      </c>
+      <c r="M5" t="n">
+        <v>463</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0.464</v>
+      </c>
+      <c r="O5" t="n">
+        <v>45</v>
+      </c>
+      <c r="P5" t="n">
+        <v>184</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>0.245</v>
+      </c>
+      <c r="R5" t="n">
+        <v>170</v>
+      </c>
+      <c r="S5" t="n">
+        <v>279</v>
+      </c>
+      <c r="T5" t="n">
+        <v>0.609</v>
+      </c>
+      <c r="U5" t="n">
+        <v>0.513</v>
+      </c>
+      <c r="V5" t="n">
+        <v>47</v>
+      </c>
+      <c r="W5" t="n">
+        <v>111</v>
+      </c>
+      <c r="X5" t="n">
+        <v>0.423</v>
+      </c>
+      <c r="Y5" t="n">
+        <v>98</v>
+      </c>
+      <c r="Z5" t="n">
+        <v>305</v>
+      </c>
+      <c r="AA5" t="n">
+        <v>403</v>
+      </c>
+      <c r="AB5" t="n">
+        <v>79</v>
+      </c>
+      <c r="AC5" t="n">
+        <v>94</v>
+      </c>
+      <c r="AD5" t="n">
+        <v>79</v>
+      </c>
+      <c r="AE5" t="n">
+        <v>51</v>
+      </c>
+      <c r="AF5" t="n">
+        <v>204</v>
+      </c>
+      <c r="AG5" t="n">
+        <v>522</v>
+      </c>
+      <c r="AH5" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 201</t>
+        </is>
+      </c>
+      <c r="AI5" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 95 </t>
+        </is>
+      </c>
+      <c r="AJ5" t="inlineStr">
+        <is>
+          <t>Right</t>
+        </is>
+      </c>
+      <c r="AK5" t="n">
         <v>26</v>
-      </c>
-      <c r="I5" t="inlineStr"/>
-      <c r="J5" t="n">
-        <v>350</v>
-      </c>
-      <c r="K5" t="n">
-        <v>54</v>
-      </c>
-      <c r="L5" t="n">
-        <v>144</v>
-      </c>
-      <c r="M5" t="n">
-        <v>0.375</v>
-      </c>
-      <c r="N5" t="n">
-        <v>0</v>
-      </c>
-      <c r="O5" t="n">
-        <v>0</v>
-      </c>
-      <c r="P5" t="inlineStr"/>
-      <c r="Q5" t="n">
-        <v>54</v>
-      </c>
-      <c r="R5" t="n">
-        <v>144</v>
-      </c>
-      <c r="S5" t="n">
-        <v>0.375</v>
-      </c>
-      <c r="T5" t="n">
-        <v>0.375</v>
-      </c>
-      <c r="U5" t="n">
-        <v>19</v>
-      </c>
-      <c r="V5" t="n">
-        <v>29</v>
-      </c>
-      <c r="W5" t="n">
-        <v>0.655</v>
-      </c>
-      <c r="X5" t="n">
-        <v>18</v>
-      </c>
-      <c r="Y5" t="n">
-        <v>50</v>
-      </c>
-      <c r="Z5" t="n">
-        <v>68</v>
-      </c>
-      <c r="AA5" t="n">
-        <v>20</v>
-      </c>
-      <c r="AB5" t="n">
-        <v>11</v>
-      </c>
-      <c r="AC5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD5" t="n">
-        <v>28</v>
-      </c>
-      <c r="AE5" t="n">
-        <v>52</v>
-      </c>
-      <c r="AF5" t="n">
-        <v>127</v>
-      </c>
-      <c r="AG5" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 196</t>
-        </is>
-      </c>
-      <c r="AH5" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 83 </t>
-        </is>
-      </c>
-      <c r="AI5" t="inlineStr">
-        <is>
-          <t>Right</t>
-        </is>
-      </c>
-      <c r="AJ5" t="n">
-        <v>21</v>
       </c>
     </row>
     <row r="6">
@@ -1024,119 +1063,124 @@
       <c r="B6" t="n">
         <v>4</v>
       </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>1983-84</t>
-        </is>
-      </c>
-      <c r="D6" t="n">
-        <v>28</v>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>DEN</t>
-        </is>
+      <c r="C6" t="n">
+        <v>4</v>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>2017-18</t>
+        </is>
+      </c>
+      <c r="E6" t="n">
+        <v>26</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
+          <t>OKC</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
           <t>NBA</t>
         </is>
       </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>SF</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>19</v>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>SG</t>
+        </is>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>39</v>
       </c>
       <c r="J6" t="n">
-        <v>197</v>
+        <v>39</v>
       </c>
       <c r="K6" t="n">
-        <v>34</v>
+        <v>1037</v>
       </c>
       <c r="L6" t="n">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="M6" t="n">
-        <v>0.374</v>
+        <v>162</v>
       </c>
       <c r="N6" t="n">
-        <v>0</v>
+        <v>0.537</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
-      </c>
-      <c r="P6" t="inlineStr"/>
+        <v>8</v>
+      </c>
+      <c r="P6" t="n">
+        <v>36</v>
+      </c>
       <c r="Q6" t="n">
-        <v>34</v>
+        <v>0.222</v>
       </c>
       <c r="R6" t="n">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="S6" t="n">
-        <v>0.374</v>
+        <v>126</v>
       </c>
       <c r="T6" t="n">
-        <v>0.374</v>
+        <v>0.627</v>
       </c>
       <c r="U6" t="n">
-        <v>13</v>
+        <v>0.5620000000000001</v>
       </c>
       <c r="V6" t="n">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="W6" t="n">
-        <v>0.722</v>
+        <v>38</v>
       </c>
       <c r="X6" t="n">
-        <v>20</v>
+        <v>0.316</v>
       </c>
       <c r="Y6" t="n">
-        <v>31</v>
+        <v>75</v>
       </c>
       <c r="Z6" t="n">
-        <v>51</v>
+        <v>110</v>
       </c>
       <c r="AA6" t="n">
-        <v>13</v>
+        <v>185</v>
       </c>
       <c r="AB6" t="n">
-        <v>5</v>
+        <v>46</v>
       </c>
       <c r="AC6" t="n">
-        <v>1</v>
+        <v>45</v>
       </c>
       <c r="AD6" t="n">
-        <v>17</v>
+        <v>35</v>
       </c>
       <c r="AE6" t="n">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="AF6" t="n">
-        <v>81</v>
-      </c>
-      <c r="AG6" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 196</t>
-        </is>
+        <v>89</v>
+      </c>
+      <c r="AG6" t="n">
+        <v>194</v>
       </c>
       <c r="AH6" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 83 </t>
+          <t xml:space="preserve"> 201</t>
         </is>
       </c>
       <c r="AI6" t="inlineStr">
         <is>
+          <t xml:space="preserve"> 95 </t>
+        </is>
+      </c>
+      <c r="AJ6" t="inlineStr">
+        <is>
           <t>Right</t>
         </is>
       </c>
-      <c r="AJ6" t="n">
-        <v>21</v>
+      <c r="AK6" t="n">
+        <v>26</v>
       </c>
     </row>
     <row r="7">
@@ -1146,115 +1190,118 @@
       <c r="B7" t="n">
         <v>5</v>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="C7" t="n">
+        <v>5</v>
+      </c>
+      <c r="D7" t="inlineStr">
         <is>
           <t>Career</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr"/>
       <c r="E7" t="inlineStr"/>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr">
         <is>
           <t>NBA</t>
         </is>
       </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>SF</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>213</v>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>SG</t>
+        </is>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>295</v>
       </c>
       <c r="J7" t="n">
-        <v>3867</v>
+        <v>269</v>
       </c>
       <c r="K7" t="n">
-        <v>679</v>
+        <v>6651</v>
       </c>
       <c r="L7" t="n">
-        <v>1650</v>
+        <v>563</v>
       </c>
       <c r="M7" t="n">
-        <v>0.412</v>
+        <v>1168</v>
       </c>
       <c r="N7" t="n">
-        <v>0</v>
+        <v>0.482</v>
       </c>
       <c r="O7" t="n">
-        <v>1</v>
+        <v>108</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>421</v>
       </c>
       <c r="Q7" t="n">
-        <v>679</v>
+        <v>0.257</v>
       </c>
       <c r="R7" t="n">
-        <v>1649</v>
+        <v>455</v>
       </c>
       <c r="S7" t="n">
-        <v>0.412</v>
+        <v>747</v>
       </c>
       <c r="T7" t="n">
-        <v>0.412</v>
+        <v>0.609</v>
       </c>
       <c r="U7" t="n">
-        <v>300</v>
+        <v>0.528</v>
       </c>
       <c r="V7" t="n">
-        <v>429</v>
+        <v>122</v>
       </c>
       <c r="W7" t="n">
-        <v>0.6990000000000001</v>
+        <v>261</v>
       </c>
       <c r="X7" t="n">
-        <v>333</v>
+        <v>0.467</v>
       </c>
       <c r="Y7" t="n">
-        <v>504</v>
+        <v>348</v>
       </c>
       <c r="Z7" t="n">
-        <v>837</v>
+        <v>840</v>
       </c>
       <c r="AA7" t="n">
-        <v>265</v>
+        <v>1188</v>
       </c>
       <c r="AB7" t="n">
-        <v>89</v>
+        <v>257</v>
       </c>
       <c r="AC7" t="n">
-        <v>13</v>
+        <v>264</v>
       </c>
       <c r="AD7" t="n">
-        <v>256</v>
+        <v>195</v>
       </c>
       <c r="AE7" t="n">
-        <v>501</v>
+        <v>181</v>
       </c>
       <c r="AF7" t="n">
-        <v>1658</v>
-      </c>
-      <c r="AG7" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 196</t>
-        </is>
+        <v>641</v>
+      </c>
+      <c r="AG7" t="n">
+        <v>1356</v>
       </c>
       <c r="AH7" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 83 </t>
+          <t xml:space="preserve"> 201</t>
         </is>
       </c>
       <c r="AI7" t="inlineStr">
         <is>
+          <t xml:space="preserve"> 95 </t>
+        </is>
+      </c>
+      <c r="AJ7" t="inlineStr">
+        <is>
           <t>Right</t>
         </is>
       </c>
-      <c r="AJ7" t="n">
-        <v>21</v>
+      <c r="AK7" t="n">
+        <v>26</v>
       </c>
     </row>
   </sheetData>
